--- a/163.xlsx
+++ b/163.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LSM\0 1 label.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squir\Desktop\数据\0 1 label 155-192\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F644DA49-A8B2-4DB7-9DCB-F84EA52F27EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F043679-4C4A-4C93-8C62-D77FC017EC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3480,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A1015" workbookViewId="0">
+      <selection activeCell="B1040" sqref="B1040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3751,7 +3751,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -4447,7 +4447,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -4823,7 +4823,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -5463,7 +5463,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -5527,7 +5527,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -5543,7 +5543,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -6191,7 +6191,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -6943,7 +6943,7 @@
         <v>432</v>
       </c>
       <c r="B432" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -7151,7 +7151,7 @@
         <v>458</v>
       </c>
       <c r="B458" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -7943,7 +7943,7 @@
         <v>557</v>
       </c>
       <c r="B557" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -8311,7 +8311,7 @@
         <v>603</v>
       </c>
       <c r="B603" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -8479,7 +8479,7 @@
         <v>624</v>
       </c>
       <c r="B624" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -8527,7 +8527,7 @@
         <v>630</v>
       </c>
       <c r="B630" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -8599,7 +8599,7 @@
         <v>639</v>
       </c>
       <c r="B639" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -8719,7 +8719,7 @@
         <v>654</v>
       </c>
       <c r="B654" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -8863,7 +8863,7 @@
         <v>672</v>
       </c>
       <c r="B672" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -9031,7 +9031,7 @@
         <v>693</v>
       </c>
       <c r="B693" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -9239,7 +9239,7 @@
         <v>719</v>
       </c>
       <c r="B719" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
@@ -9247,7 +9247,7 @@
         <v>720</v>
       </c>
       <c r="B720" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
@@ -9279,7 +9279,7 @@
         <v>724</v>
       </c>
       <c r="B724" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
@@ -9903,7 +9903,7 @@
         <v>802</v>
       </c>
       <c r="B802" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
@@ -10151,7 +10151,7 @@
         <v>833</v>
       </c>
       <c r="B833" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
@@ -10879,7 +10879,7 @@
         <v>924</v>
       </c>
       <c r="B924" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
@@ -10887,7 +10887,7 @@
         <v>925</v>
       </c>
       <c r="B925" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
@@ -11167,7 +11167,7 @@
         <v>960</v>
       </c>
       <c r="B960" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
@@ -11727,7 +11727,7 @@
         <v>1030</v>
       </c>
       <c r="B1030" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
@@ -11807,7 +11807,7 @@
         <v>1040</v>
       </c>
       <c r="B1040" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
